--- a/docss/trend/luxembourg/E_neuron.xlsx
+++ b/docss/trend/luxembourg/E_neuron.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\luxembourg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\luxembourg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="A1:F19"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,216 +1599,188 @@
       <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2002</v>
       </c>
       <c r="B2" s="6">
-        <v>1.3641801774501801</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="C2" s="6">
-        <v>2.3310519456863403</v>
+        <v>2.331</v>
       </c>
       <c r="D2" s="6">
-        <v>0.69164423644542694</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+        <v>0.69199999999999995</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
       <c r="B3" s="6">
-        <v>0.91843943297863007</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="C3" s="6">
-        <v>0.37397158145904541</v>
+        <v>0.374</v>
       </c>
       <c r="D3" s="6">
-        <v>1.3502615988254547</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+        <v>1.35</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2004</v>
       </c>
       <c r="B4" s="6">
-        <v>0.9721856415271759</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="C4" s="6">
-        <v>1.6877868473529816</v>
+        <v>1.6879999999999999</v>
       </c>
       <c r="D4" s="6">
-        <v>0.24636611342430115</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+        <v>0.246</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2005</v>
       </c>
       <c r="B5" s="6">
-        <v>1.0873266309499741</v>
+        <v>1.087</v>
       </c>
       <c r="C5" s="6">
-        <v>1.5890888273715973</v>
+        <v>1.589</v>
       </c>
       <c r="D5" s="6">
-        <v>0.71745604276657104</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+        <v>0.71699999999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2006</v>
       </c>
       <c r="B6" s="6">
-        <v>1.3493243679404259</v>
+        <v>1.349</v>
       </c>
       <c r="C6" s="6">
-        <v>1.682744950056076</v>
+        <v>1.6830000000000001</v>
       </c>
       <c r="D6" s="6">
-        <v>1.03473861515522</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+        <v>1.0349999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
       <c r="B7" s="6">
-        <v>0.53657662868499756</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="C7" s="6">
-        <v>0.79239296913146973</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="D7" s="6">
-        <v>0.3260515034198761</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+        <v>0.32600000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2008</v>
       </c>
       <c r="B8" s="6">
-        <v>0.95164063572883606</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="C8" s="6">
-        <v>0.83580648899078369</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="D8" s="6">
-        <v>1.1175767630338669</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+        <v>1.1180000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2009</v>
       </c>
       <c r="B9" s="6">
-        <v>1.9490865468978882</v>
+        <v>1.9490000000000001</v>
       </c>
       <c r="C9" s="6">
-        <v>3.069350004196167</v>
+        <v>3.069</v>
       </c>
       <c r="D9" s="6">
-        <v>1.1843125522136688</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+        <v>1.1839999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2010</v>
       </c>
       <c r="B10" s="6">
-        <v>0.68271928280591965</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="C10" s="6">
-        <v>1.0152940452098846</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="D10" s="6">
-        <v>0.41919931769371033</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <v>0.41899999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2011</v>
       </c>
       <c r="B11" s="6">
-        <v>0.79576537758111954</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="C11" s="6">
-        <v>0.41915538907051086</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D11" s="6">
-        <v>1.0954860001802444</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>1.095</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2012</v>
       </c>
       <c r="B12" s="6">
-        <v>2.0138920396566391</v>
+        <v>2.0139999999999998</v>
       </c>
       <c r="C12" s="6">
-        <v>1.9568807482719421</v>
+        <v>1.9570000000000001</v>
       </c>
       <c r="D12" s="6">
-        <v>2.1143105030059814</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+        <v>2.1139999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2013</v>
       </c>
       <c r="B13" s="6">
-        <v>1.8124203681945801</v>
+        <v>1.8120000000000001</v>
       </c>
       <c r="C13" s="6">
-        <v>1.1033185720443726</v>
+        <v>1.103</v>
       </c>
       <c r="D13" s="6">
-        <v>2.3911984711885452</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>2.391</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
       <c r="B14" s="6">
-        <v>1.3176266178488731</v>
+        <v>1.3180000000000001</v>
       </c>
       <c r="C14" s="6">
-        <v>2.0156963914632797</v>
+        <v>2.016</v>
       </c>
       <c r="D14" s="6">
-        <v>0.75434672832489014</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>0.754</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
